--- a/inst/app/www/FFT-QDC Framework v5 - 20230428.xlsx
+++ b/inst/app/www/FFT-QDC Framework v5 - 20230428.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMApe\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Git_version\experiencesdashboard\inst\app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8ABD5-D8BB-4AA7-8579-372EF5EE21BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80764A49-292A-4788-869F-F34F3AB412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A6CBFB25-4989-4213-A992-2CDE08D15D58}"/>
+    <workbookView xWindow="-28320" yWindow="480" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{A6CBFB25-4989-4213-A992-2CDE08D15D58}"/>
   </bookViews>
   <sheets>
     <sheet name="v5 overview" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Staff listening, understanding &amp; involving patients
-</t>
-  </si>
-  <si>
     <t>Comments relating to two-way communication between staff and patients in terms of how well patients feel listened to and understood by staff, the extent to which a personalised approach is taken (i.e. being treated as an individual person rather than a number). This includes if/ how people are involved in decisions about their care and whether they have enough time to do so. It also incorporates comments about whether staff talk to/ spend time with patients and engage with them to provide company.</t>
   </si>
   <si>
@@ -2722,12 +2718,15 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Environment &amp; Facilities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2771,12 +2770,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3035,7 +3028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3064,13 +3057,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3079,10 +3072,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3097,7 +3090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3107,13 +3099,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,13 +3126,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3473,7 +3465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32967E1-9432-47EB-98EF-656A26BB1027}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J23"/>
@@ -3494,66 +3486,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3" t="s">
         <v>52</v>
       </c>
@@ -3562,30 +3554,30 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -3600,7 +3592,7 @@
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
@@ -3610,33 +3602,33 @@
       <c r="I8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="29" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -3654,7 +3646,7 @@
       <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="3" t="s">
         <v>61</v>
       </c>
@@ -3666,28 +3658,28 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -3708,33 +3700,33 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -3758,32 +3750,32 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -3807,32 +3799,32 @@
       <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="26"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3863,33 +3855,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:J22"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3901,8 +3878,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3994,7 +3971,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4128,13 +4105,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -4145,10 +4122,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -4159,10 +4136,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -4173,10 +4150,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -4187,10 +4164,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4201,10 +4178,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -4215,10 +4192,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -4229,10 +4206,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4243,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -4257,10 +4234,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -4271,10 +4248,10 @@
         <v>32</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4285,10 +4262,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -4299,10 +4276,10 @@
         <v>36</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -4313,10 +4290,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4327,10 +4304,10 @@
         <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -4341,10 +4318,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4355,10 +4332,10 @@
         <v>41</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4369,10 +4346,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -4383,10 +4360,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4397,10 +4374,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4411,10 +4388,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -4425,10 +4402,10 @@
         <v>57</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -4436,13 +4413,13 @@
         <v>54</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4453,10 +4430,10 @@
         <v>59</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -4464,13 +4441,13 @@
         <v>54</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -4481,10 +4458,10 @@
         <v>34</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4495,10 +4472,10 @@
         <v>61</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -4509,10 +4486,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4523,10 +4500,10 @@
         <v>63</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -4537,10 +4514,10 @@
         <v>52</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -4551,66 +4528,66 @@
         <v>53</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4623,8 +4600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE62A3-1C1C-4210-A0D4-9DFAC5BA2C12}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:C50"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4804,10 +4781,10 @@
         <v>93</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4818,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4829,7 +4806,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4840,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4851,10 +4828,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>93</v>
       </c>
@@ -4862,10 +4839,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -4873,7 +4850,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4884,10 +4861,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
@@ -4895,10 +4872,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
@@ -4906,7 +4883,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4917,7 +4894,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4928,7 +4905,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4939,7 +4916,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4950,10 +4927,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>35</v>
       </c>
@@ -4961,10 +4938,10 @@
         <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
@@ -4972,10 +4949,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>35</v>
       </c>
@@ -4983,7 +4960,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4994,10 +4971,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>35</v>
       </c>
@@ -5005,10 +4982,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>35</v>
       </c>
@@ -5016,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5027,7 +5004,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -5038,7 +5015,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -5046,10 +5023,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5060,7 +5037,7 @@
         <v>59</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5068,10 +5045,10 @@
         <v>54</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5082,7 +5059,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5093,7 +5070,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5104,10 +5081,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>55</v>
       </c>
@@ -5115,7 +5092,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5126,7 +5103,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5137,51 +5114,51 @@
         <v>53</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5191,6 +5168,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FAB909D2035A345A9E4149139BE13AC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d7a7bc34235ccc05fe22611d0f6eccf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e" xmlns:ns3="9d2b163f-2795-4980-a00f-d619f53f7de8" xmlns:ns4="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2807a588f71f35e530033fa0d4171617" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5455,45 +5454,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cccaf3ac-2de9-44d4-aa31-54302fceb5f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB067F0-DF31-4C76-AB48-5D3A2E88AFA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4BC81C-AE26-4120-9B5C-5C35A8614365}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
-    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
-    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5518,9 +5482,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C4BC81C-AE26-4120-9B5C-5C35A8614365}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB067F0-DF31-4C76-AB48-5D3A2E88AFA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8fb53b4f-1204-4cd9-8a55-a9d7af4fbf3e"/>
+    <ds:schemaRef ds:uri="9d2b163f-2795-4980-a00f-d619f53f7de8"/>
+    <ds:schemaRef ds:uri="cccaf3ac-2de9-44d4-aa31-54302fceb5f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>